--- a/biology/Médecine/Marquage_SFDA/Marquage_SFDA.xlsx
+++ b/biology/Médecine/Marquage_SFDA/Marquage_SFDA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le marquage SFDA est une procédure de qualité de la République populaire de Chine relative aux appareils médicaux.
 Pour pouvoir être mis en vente sur le marché chinois, tout appareil médical doit subir au préalable une série de vérifications qui certifient que l'appareil répond aux exigences indispensables au bon fonctionnement et à la qualité de l'appareil.
